--- a/Mifos Automation Excels/Loan Product/1542-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-EARLY-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/1542-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-EARLY-Loanproduct.xlsx
@@ -179,9 +179,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>currency</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>1542-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-EARLY</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -675,10 +675,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -758,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -766,7 +766,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -822,12 +822,12 @@
         <v>32</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="14">
         <v>1</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="27" spans="1:2" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="15">
         <v>42005</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="8">
         <v>10000</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>17</v>
@@ -967,10 +967,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
